--- a/2021-2022/På spåret 2021-2022.xlsx
+++ b/2021-2022/På spåret 2021-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\pa-sparet\2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D52CA14-47FC-483C-B443-767668E2ECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E1A83-0924-4A81-AF4D-812339AEE178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69E5494E-B5AE-1841-8D6A-2EE441F87A2A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="12870" xr2:uid="{69E5494E-B5AE-1841-8D6A-2EE441F87A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistik" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,18 +556,18 @@
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="7.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="4.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
@@ -615,29 +618,35 @@
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15">
+        <v>44526</v>
+      </c>
+      <c r="B2" s="16">
+        <v>25</v>
+      </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16">
+        <v>22</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="G2">
         <f>IF($B2&gt;=$C2,IF($B2&gt;=$D2, IF($B2&gt;=$E2,1,FALSE)))</f>
         <v>1</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H14" si="0">IF($C2&gt;=$B2,IF($C2&gt;=$D2, IF($C2&gt;=$E2,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I14" si="1">IF($D2&gt;=$B2,IF($D2&gt;=$C2, IF($D2&gt;=$E2,1,FALSE)))</f>
-        <v>1</v>
+      <c r="H2" t="b">
+        <f>IF($C2&gt;=$B2,IF($C2&gt;=$D2, IF($C2&gt;=$E2,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <f>IF($D2&gt;=$B2,IF($D2&gt;=$C2, IF($D2&gt;=$E2,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M2">
         <f>COUNTA(B:B) - 1</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N2">
         <f>COUNTA(C:C) - 1</f>
@@ -645,7 +654,7 @@
       </c>
       <c r="O2">
         <f>COUNTA(D:D) - 1</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -654,37 +663,43 @@
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="15">
+        <v>44533</v>
+      </c>
+      <c r="B3" s="16">
+        <v>28</v>
+      </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16">
+        <v>22</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="2">IF($B3&gt;=$C3,IF($B3&gt;=$D3, IF($B3&gt;=$E3,1,FALSE)))</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($B3&gt;=$C3,IF($B3&gt;=$D3, IF($B3&gt;=$E3,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF($C3&gt;=$B3,IF($C3&gt;=$D3, IF($C3&gt;=$E3,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF($D3&gt;=$B3,IF($D3&gt;=$C3, IF($D3&gt;=$E3,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M3">
         <f>G15</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <f>H15</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3" si="3">I15</f>
-        <v>13</v>
+        <f t="shared" ref="O3" si="0">I15</f>
+        <v>8</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -693,21 +708,27 @@
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15">
+        <v>44540</v>
+      </c>
+      <c r="B4" s="16">
+        <v>15</v>
+      </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>22</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G4" t="b">
+        <f>IF($B4&gt;=$C4,IF($B4&gt;=$D4, IF($B4&gt;=$E4,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF($C4&gt;=$B4,IF($C4&gt;=$D4, IF($C4&gt;=$E4,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f>IF($D4&gt;=$B4,IF($D4&gt;=$C4, IF($D4&gt;=$E4,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -715,7 +736,7 @@
       </c>
       <c r="M4">
         <f>SUM(B:B)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="N4">
         <f>SUM(C:C)</f>
@@ -723,7 +744,7 @@
       </c>
       <c r="O4">
         <f>SUM(D:D)</f>
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -732,37 +753,43 @@
       <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15">
+        <v>44547</v>
+      </c>
+      <c r="B5" s="16">
+        <v>33</v>
+      </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>25</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($B5&gt;=$C5,IF($B5&gt;=$D5, IF($B5&gt;=$E5,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF($C5&gt;=$B5,IF($C5&gt;=$D5, IF($C5&gt;=$E5,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF($D5&gt;=$B5,IF($D5&gt;=$C5, IF($D5&gt;=$E5,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="e">
+      <c r="M5" s="2">
         <f>M4/M2</f>
-        <v>#DIV/0!</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="N5" s="2" t="e">
         <f>N4/N2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="2" t="e">
-        <f t="shared" ref="O5" si="4">O4/O2</f>
-        <v>#DIV/0!</v>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5" si="1">O4/O2</f>
+        <v>24.53846153846154</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -771,21 +798,27 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B6" s="16">
+        <v>18</v>
+      </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>25</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G6" t="b">
+        <f>IF($B6&gt;=$C6,IF($B6&gt;=$D6, IF($B6&gt;=$E6,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF($C6&gt;=$B6,IF($C6&gt;=$D6, IF($C6&gt;=$E6,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f>IF($D6&gt;=$B6,IF($D6&gt;=$C6, IF($D6&gt;=$E6,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -793,15 +826,15 @@
       </c>
       <c r="M6">
         <f>MIN(B2:B14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:O6" si="5">MIN(C2:C14)</f>
+        <f>MIN(C2:C14)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="O6" si="2">MIN(D2:D14)</f>
+        <v>22</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -810,37 +843,43 @@
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15">
+        <v>44568</v>
+      </c>
+      <c r="B7" s="16">
+        <v>12</v>
+      </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>24</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G7" t="b">
+        <f>IF($B7&gt;=$C7,IF($B7&gt;=$D7, IF($B7&gt;=$E7,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF($C7&gt;=$B7,IF($C7&gt;=$D7, IF($C7&gt;=$E7,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f>IF($D7&gt;=$B7,IF($D7&gt;=$C7, IF($D7&gt;=$E7,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M7" t="e">
+      <c r="M7">
         <f>MEDIAN(B2:B14)</f>
-        <v>#NUM!</v>
+        <v>19</v>
       </c>
       <c r="N7" t="e">
         <f>MEDIAN(C2:C14)</f>
         <v>#NUM!</v>
       </c>
-      <c r="O7" t="e">
+      <c r="O7">
         <f>MEDIAN(D2:D14)</f>
-        <v>#NUM!</v>
+        <v>24</v>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="8"/>
@@ -849,37 +888,43 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44575</v>
+      </c>
+      <c r="B8" s="16">
+        <v>24</v>
+      </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>22</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($B8&gt;=$C8,IF($B8&gt;=$D8, IF($B8&gt;=$E8,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF($C8&gt;=$B8,IF($C8&gt;=$D8, IF($C8&gt;=$E8,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF($D8&gt;=$B8,IF($D8&gt;=$C8, IF($D8&gt;=$E8,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M8">
         <f>MAX(B2:B14)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:O8" si="6">MAX(C2:C14)</f>
+        <f>MAX(C2:C14)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="O8" si="3">MAX(D2:D14)</f>
+        <v>31</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -888,37 +933,43 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15">
+        <v>44582</v>
+      </c>
+      <c r="B9" s="16">
+        <v>35</v>
+      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF($B9&gt;=$C9,IF($B9&gt;=$D9, IF($B9&gt;=$E9,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF($C9&gt;=$B9,IF($C9&gt;=$D9, IF($C9&gt;=$E9,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF($D9&gt;=$B9,IF($D9&gt;=$C9, IF($D9&gt;=$E9,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="2" t="e">
+      <c r="M9" s="2">
         <f>STDEV(B2:B14)</f>
-        <v>#DIV/0!</v>
+        <v>7.1018235289182918</v>
       </c>
       <c r="N9" s="2" t="e">
         <f>STDEV(C2:C14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="2" t="e">
+      <c r="O9" s="2">
         <f>STDEV(D2:D14)</f>
-        <v>#DIV/0!</v>
+        <v>2.601774542351968</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -927,127 +978,158 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15">
+        <v>44589</v>
+      </c>
+      <c r="B10" s="16">
+        <v>16</v>
+      </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>24</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G10" t="b">
+        <f>IF($B10&gt;=$C10,IF($B10&gt;=$D10, IF($B10&gt;=$E10,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <f>IF($C10&gt;=$B10,IF($C10&gt;=$D10, IF($C10&gt;=$E10,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f>IF($D10&gt;=$B10,IF($D10&gt;=$C10, IF($D10&gt;=$E10,1,FALSE)))</f>
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3" t="e">
+      <c r="M10" s="3">
         <f>VAR(B2:B14)</f>
-        <v>#DIV/0!</v>
+        <v>50.435897435897459</v>
       </c>
       <c r="N10" s="3" t="e">
         <f>VAR(C2:C14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="3" t="e">
+      <c r="O10" s="3">
         <f>VAR(D2:D14)</f>
-        <v>#DIV/0!</v>
+        <v>6.7692307692307923</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15">
+        <v>44596</v>
+      </c>
+      <c r="B11" s="16">
+        <v>21</v>
+      </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>25</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G11" t="b">
+        <f>IF($B11&gt;=$C11,IF($B11&gt;=$D11, IF($B11&gt;=$E11,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <f>IF($C11&gt;=$B11,IF($C11&gt;=$D11, IF($C11&gt;=$E11,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f>IF($D11&gt;=$B11,IF($D11&gt;=$C11, IF($D11&gt;=$E11,1,FALSE)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15">
+        <v>44603</v>
+      </c>
+      <c r="B12" s="16">
+        <v>15</v>
+      </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>25</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G12" t="b">
+        <f>IF($B12&gt;=$C12,IF($B12&gt;=$D12, IF($B12&gt;=$E12,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <f>IF($C12&gt;=$B12,IF($C12&gt;=$D12, IF($C12&gt;=$E12,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f>IF($D12&gt;=$B12,IF($D12&gt;=$C12, IF($D12&gt;=$E12,1,FALSE)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15">
+        <v>44610</v>
+      </c>
+      <c r="B13" s="16">
+        <v>19</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>24</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G13" t="b">
+        <f>IF($B13&gt;=$C13,IF($B13&gt;=$D13, IF($B13&gt;=$E13,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <f>IF($C13&gt;=$B13,IF($C13&gt;=$D13, IF($C13&gt;=$E13,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f>IF($D13&gt;=$B13,IF($D13&gt;=$C13, IF($D13&gt;=$E13,1,FALSE)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15">
+        <v>44617</v>
+      </c>
+      <c r="B14" s="16">
+        <v>19</v>
+      </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>31</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="G14" t="b">
+        <f>IF($B14&gt;=$C14,IF($B14&gt;=$D14, IF($B14&gt;=$E14,1,FALSE)))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <f>IF($C14&gt;=$B14,IF($C14&gt;=$D14, IF($C14&gt;=$E14,1,FALSE)))</f>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>IF($D14&gt;=$B14,IF($D14&gt;=$C14, IF($D14&gt;=$E14,1,FALSE)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
       <c r="G15">
         <f>SUM(G2:G14)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:I15" si="7">SUM(H2:H14)</f>
-        <v>13</v>
+        <f t="shared" ref="H15:I15" si="4">SUM(H2:H14)</f>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1147,9 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="5.875" customWidth="1"/>
     <col min="7" max="12" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1085,10 +1169,16 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15">
+        <v>44526</v>
+      </c>
+      <c r="B2" s="16">
+        <v>25</v>
+      </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16">
+        <v>22</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1100,10 +1190,16 @@
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="15">
+        <v>44533</v>
+      </c>
+      <c r="B3" s="16">
+        <v>28</v>
+      </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16">
+        <v>22</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="H3" s="5"/>
       <c r="I3" s="9" t="s">
@@ -1118,10 +1214,16 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15">
+        <v>44540</v>
+      </c>
+      <c r="B4" s="16">
+        <v>15</v>
+      </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16">
+        <v>22</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="G4" s="20" t="s">
         <v>13</v>
@@ -1139,15 +1241,21 @@
       </c>
       <c r="K4" s="12">
         <f>SUMPRODUCT(--($B$2:$B$14&gt;D$2:D$14),--($B$2:$B$14&lt;&gt;""),--(D$2:D$14&lt;&gt;""))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15">
+        <v>44547</v>
+      </c>
+      <c r="B5" s="16">
+        <v>33</v>
+      </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>25</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
@@ -1168,10 +1276,16 @@
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15">
+        <v>44561</v>
+      </c>
+      <c r="B6" s="16">
+        <v>18</v>
+      </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>25</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
@@ -1179,7 +1293,7 @@
       </c>
       <c r="I6" s="12">
         <f>SUMPRODUCT(--($D$2:$D$14&gt;B$2:B$14),--($D$2:$D$14&lt;&gt;""),--(B$2:B$14&lt;&gt;""))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" ref="J6:K6" si="1">SUMPRODUCT(--($D$2:$D$14&gt;C$2:C$14),--($D$2:$D$14&lt;&gt;""),--(C$2:C$14&lt;&gt;""))</f>
@@ -1192,10 +1306,16 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15">
+        <v>44568</v>
+      </c>
+      <c r="B7" s="16">
+        <v>12</v>
+      </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>24</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="G7" s="17"/>
       <c r="H7" s="9"/>
@@ -1205,10 +1325,16 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44575</v>
+      </c>
+      <c r="B8" s="16">
+        <v>24</v>
+      </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>22</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1217,45 +1343,81 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15">
+        <v>44582</v>
+      </c>
+      <c r="B9" s="16">
+        <v>35</v>
+      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15">
+        <v>44589</v>
+      </c>
+      <c r="B10" s="16">
+        <v>16</v>
+      </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16">
+        <v>24</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15">
+        <v>44596</v>
+      </c>
+      <c r="B11" s="16">
+        <v>21</v>
+      </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="16">
+        <v>25</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15">
+        <v>44603</v>
+      </c>
+      <c r="B12" s="16">
+        <v>15</v>
+      </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16">
+        <v>25</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15">
+        <v>44610</v>
+      </c>
+      <c r="B13" s="16">
+        <v>19</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16">
+        <v>24</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15">
+        <v>44617</v>
+      </c>
+      <c r="B14" s="16">
+        <v>19</v>
+      </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>31</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
   </sheetData>
